--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_100ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_100ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
@@ -3877,28 +3877,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2628.696528381821</v>
+        <v>2732.756119081609</v>
       </c>
       <c r="AB2" t="n">
-        <v>3596.6985600383</v>
+        <v>3739.077482818899</v>
       </c>
       <c r="AC2" t="n">
-        <v>3253.434697466242</v>
+        <v>3382.225175686729</v>
       </c>
       <c r="AD2" t="n">
-        <v>2628696.528381821</v>
+        <v>2732756.119081609</v>
       </c>
       <c r="AE2" t="n">
-        <v>3596698.5600383</v>
+        <v>3739077.482818899</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.00966612276483e-06</v>
+        <v>1.706890676331319e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.06805555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>3253434.697466242</v>
+        <v>3382225.175686729</v>
       </c>
     </row>
     <row r="3">
@@ -3983,28 +3983,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>889.8799569415403</v>
+        <v>952.2815213144536</v>
       </c>
       <c r="AB3" t="n">
-        <v>1217.573015820374</v>
+        <v>1302.95358915812</v>
       </c>
       <c r="AC3" t="n">
-        <v>1101.369556064937</v>
+        <v>1178.601527315716</v>
       </c>
       <c r="AD3" t="n">
-        <v>889879.9569415402</v>
+        <v>952281.5213144536</v>
       </c>
       <c r="AE3" t="n">
-        <v>1217573.015820374</v>
+        <v>1302953.58915812</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.899123477265216e-06</v>
+        <v>3.210562465609177e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.66944444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>1101369.556064937</v>
+        <v>1178601.527315716</v>
       </c>
     </row>
     <row r="4">
@@ -4089,28 +4089,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>692.9810784467595</v>
+        <v>734.6391047736339</v>
       </c>
       <c r="AB4" t="n">
-        <v>948.1672836983627</v>
+        <v>1005.165633141207</v>
       </c>
       <c r="AC4" t="n">
-        <v>857.6755289033309</v>
+        <v>909.2340358730359</v>
       </c>
       <c r="AD4" t="n">
-        <v>692981.0784467595</v>
+        <v>734639.1047736339</v>
       </c>
       <c r="AE4" t="n">
-        <v>948167.2836983626</v>
+        <v>1005165.633141207</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.219923333349577e-06</v>
+        <v>3.752890539189955e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.127777777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>857675.5289033309</v>
+        <v>909234.0358730359</v>
       </c>
     </row>
     <row r="5">
@@ -4195,28 +4195,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>607.9206996504732</v>
+        <v>649.493385122776</v>
       </c>
       <c r="AB5" t="n">
-        <v>831.7839208302169</v>
+        <v>888.6655031508632</v>
       </c>
       <c r="AC5" t="n">
-        <v>752.3996308422452</v>
+        <v>803.8525147800112</v>
       </c>
       <c r="AD5" t="n">
-        <v>607920.6996504732</v>
+        <v>649493.385122776</v>
       </c>
       <c r="AE5" t="n">
-        <v>831783.9208302168</v>
+        <v>888665.5031508632</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.388711615973317e-06</v>
+        <v>4.03823550559876e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.481944444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>752399.6308422452</v>
+        <v>803852.5147800113</v>
       </c>
     </row>
     <row r="6">
@@ -4301,28 +4301,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>564.163619623691</v>
+        <v>605.7363050959937</v>
       </c>
       <c r="AB6" t="n">
-        <v>771.9135535114452</v>
+        <v>828.7951358320915</v>
       </c>
       <c r="AC6" t="n">
-        <v>698.2432073517888</v>
+        <v>749.6960912895547</v>
       </c>
       <c r="AD6" t="n">
-        <v>564163.6196236911</v>
+        <v>605736.3050959937</v>
       </c>
       <c r="AE6" t="n">
-        <v>771913.5535114452</v>
+        <v>828795.1358320916</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.495207248052255e-06</v>
+        <v>4.218271655536899e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.120833333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>698243.2073517888</v>
+        <v>749696.0912895547</v>
       </c>
     </row>
     <row r="7">
@@ -4407,28 +4407,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>524.4632426598657</v>
+        <v>566.121179478189</v>
       </c>
       <c r="AB7" t="n">
-        <v>717.5937462925194</v>
+        <v>774.5919732658151</v>
       </c>
       <c r="AC7" t="n">
-        <v>649.1076062955091</v>
+        <v>700.6660024839874</v>
       </c>
       <c r="AD7" t="n">
-        <v>524463.2426598658</v>
+        <v>566121.179478189</v>
       </c>
       <c r="AE7" t="n">
-        <v>717593.7462925194</v>
+        <v>774591.9732658151</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.566836501957403e-06</v>
+        <v>4.339364463235018e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.893055555555555</v>
       </c>
       <c r="AH7" t="n">
-        <v>649107.606295509</v>
+        <v>700666.0024839875</v>
       </c>
     </row>
     <row r="8">
@@ -4513,28 +4513,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>501.3307227116046</v>
+        <v>542.9886595299279</v>
       </c>
       <c r="AB8" t="n">
-        <v>685.942811964554</v>
+        <v>742.9410389378498</v>
       </c>
       <c r="AC8" t="n">
-        <v>620.4773927174394</v>
+        <v>672.0357889059177</v>
       </c>
       <c r="AD8" t="n">
-        <v>501330.7227116046</v>
+        <v>542988.6595299279</v>
       </c>
       <c r="AE8" t="n">
-        <v>685942.811964554</v>
+        <v>742941.0389378498</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.621689046699431e-06</v>
+        <v>4.432095411696305e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.727777777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>620477.3927174394</v>
+        <v>672035.7889059177</v>
       </c>
     </row>
     <row r="9">
@@ -4619,28 +4619,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>481.4075151290053</v>
+        <v>523.0654519473286</v>
       </c>
       <c r="AB9" t="n">
-        <v>658.6830004001564</v>
+        <v>715.6812273734521</v>
       </c>
       <c r="AC9" t="n">
-        <v>595.8192193093621</v>
+        <v>647.3776154978405</v>
       </c>
       <c r="AD9" t="n">
-        <v>481407.5151290053</v>
+        <v>523065.4519473286</v>
       </c>
       <c r="AE9" t="n">
-        <v>658683.0004001564</v>
+        <v>715681.227373452</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.664141415103501e-06</v>
+        <v>4.503863246808633e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.605555555555556</v>
       </c>
       <c r="AH9" t="n">
-        <v>595819.2193093621</v>
+        <v>647377.6154978405</v>
       </c>
     </row>
     <row r="10">
@@ -4725,28 +4725,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>459.9843790867142</v>
+        <v>501.4717237044453</v>
       </c>
       <c r="AB10" t="n">
-        <v>629.3709205450349</v>
+        <v>686.1357357434836</v>
       </c>
       <c r="AC10" t="n">
-        <v>569.3046432158509</v>
+        <v>620.6519041216781</v>
       </c>
       <c r="AD10" t="n">
-        <v>459984.3790867142</v>
+        <v>501471.7237044453</v>
       </c>
       <c r="AE10" t="n">
-        <v>629370.9205450349</v>
+        <v>686135.7357434835</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.710386778622711e-06</v>
+        <v>4.582043328357112e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.475000000000001</v>
       </c>
       <c r="AH10" t="n">
-        <v>569304.6432158509</v>
+        <v>620651.9041216781</v>
       </c>
     </row>
     <row r="11">
@@ -4831,28 +4831,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>451.6537145274227</v>
+        <v>493.1410591451539</v>
       </c>
       <c r="AB11" t="n">
-        <v>617.9725377720305</v>
+        <v>674.7373529704792</v>
       </c>
       <c r="AC11" t="n">
-        <v>558.9941060969713</v>
+        <v>610.3413670027985</v>
       </c>
       <c r="AD11" t="n">
-        <v>451653.7145274227</v>
+        <v>493141.0591451538</v>
       </c>
       <c r="AE11" t="n">
-        <v>617972.5377720305</v>
+        <v>674737.3529704792</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.712866813890302e-06</v>
+        <v>4.586235951026904e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.468055555555556</v>
       </c>
       <c r="AH11" t="n">
-        <v>558994.1060969713</v>
+        <v>610341.3670027985</v>
       </c>
     </row>
     <row r="12">
@@ -4937,28 +4937,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>445.0293626233018</v>
+        <v>486.5167072410329</v>
       </c>
       <c r="AB12" t="n">
-        <v>608.9088072510318</v>
+        <v>665.6736224494805</v>
       </c>
       <c r="AC12" t="n">
-        <v>550.7954052958711</v>
+        <v>602.1426662016983</v>
       </c>
       <c r="AD12" t="n">
-        <v>445029.3626233018</v>
+        <v>486516.7072410329</v>
       </c>
       <c r="AE12" t="n">
-        <v>608908.8072510319</v>
+        <v>665673.6224494805</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.723954030380712e-06</v>
+        <v>4.604979440609505e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.438888888888889</v>
       </c>
       <c r="AH12" t="n">
-        <v>550795.4052958711</v>
+        <v>602142.6662016982</v>
       </c>
     </row>
     <row r="13">
@@ -5043,28 +5043,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>445.4027807936609</v>
+        <v>486.890125411392</v>
       </c>
       <c r="AB13" t="n">
-        <v>609.4197344657641</v>
+        <v>666.1845496642129</v>
       </c>
       <c r="AC13" t="n">
-        <v>551.2575703343202</v>
+        <v>602.6048312401474</v>
       </c>
       <c r="AD13" t="n">
-        <v>445402.7807936609</v>
+        <v>486890.125411392</v>
       </c>
       <c r="AE13" t="n">
-        <v>609419.7344657641</v>
+        <v>666184.5496642129</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.729351754198412e-06</v>
+        <v>4.614104560537877e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7.423611111111111</v>
       </c>
       <c r="AH13" t="n">
-        <v>551257.5703343202</v>
+        <v>602604.8312401474</v>
       </c>
     </row>
   </sheetData>
@@ -5340,28 +5340,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1580.574495535148</v>
+        <v>1661.299038286029</v>
       </c>
       <c r="AB2" t="n">
-        <v>2162.611754816634</v>
+        <v>2273.062635523871</v>
       </c>
       <c r="AC2" t="n">
-        <v>1956.215124181596</v>
+        <v>2056.124727852918</v>
       </c>
       <c r="AD2" t="n">
-        <v>1580574.495535148</v>
+        <v>1661299.038286029</v>
       </c>
       <c r="AE2" t="n">
-        <v>2162611.754816635</v>
+        <v>2273062.635523872</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.332432059632039e-06</v>
+        <v>2.307493858952943e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.73194444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>1956215.124181596</v>
+        <v>2056124.727852918</v>
       </c>
     </row>
     <row r="3">
@@ -5446,28 +5446,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>700.0136663130157</v>
+        <v>750.4665055323164</v>
       </c>
       <c r="AB3" t="n">
-        <v>957.7895806728546</v>
+        <v>1026.821381114877</v>
       </c>
       <c r="AC3" t="n">
-        <v>866.3794873595559</v>
+        <v>928.8229896541326</v>
       </c>
       <c r="AD3" t="n">
-        <v>700013.6663130157</v>
+        <v>750466.5055323164</v>
       </c>
       <c r="AE3" t="n">
-        <v>957789.5806728547</v>
+        <v>1026821.381114877</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.144205991986862e-06</v>
+        <v>3.713316655114217e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.774999999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>866379.4873595559</v>
+        <v>928822.9896541326</v>
       </c>
     </row>
     <row r="4">
@@ -5552,28 +5552,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>562.1770642639806</v>
+        <v>612.5445626287096</v>
       </c>
       <c r="AB4" t="n">
-        <v>769.1954608276523</v>
+        <v>838.1104941474774</v>
       </c>
       <c r="AC4" t="n">
-        <v>695.78452561887</v>
+        <v>758.1224048815078</v>
       </c>
       <c r="AD4" t="n">
-        <v>562177.0642639806</v>
+        <v>612544.5626287096</v>
       </c>
       <c r="AE4" t="n">
-        <v>769195.4608276522</v>
+        <v>838110.4941474774</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.437283697254211e-06</v>
+        <v>4.220865989589991e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.600000000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>695784.52561887</v>
+        <v>758122.4048815079</v>
       </c>
     </row>
     <row r="5">
@@ -5658,28 +5658,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>507.4250606125169</v>
+        <v>547.7020806419367</v>
       </c>
       <c r="AB5" t="n">
-        <v>694.2813539437951</v>
+        <v>749.3901496447642</v>
       </c>
       <c r="AC5" t="n">
-        <v>628.0201159533988</v>
+        <v>677.8694055383478</v>
       </c>
       <c r="AD5" t="n">
-        <v>507425.0606125169</v>
+        <v>547702.0806419367</v>
       </c>
       <c r="AE5" t="n">
-        <v>694281.3539437951</v>
+        <v>749390.1496447641</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.586237196275257e-06</v>
+        <v>4.478822319727781e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.104166666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>628020.1159533988</v>
+        <v>677869.4055383478</v>
       </c>
     </row>
     <row r="6">
@@ -5764,28 +5764,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>462.2500867054772</v>
+        <v>502.6123580809178</v>
       </c>
       <c r="AB6" t="n">
-        <v>632.4709616649922</v>
+        <v>687.6964020186103</v>
       </c>
       <c r="AC6" t="n">
-        <v>572.1088207622544</v>
+        <v>622.0636225979157</v>
       </c>
       <c r="AD6" t="n">
-        <v>462250.0867054772</v>
+        <v>502612.3580809178</v>
       </c>
       <c r="AE6" t="n">
-        <v>632470.9616649922</v>
+        <v>687696.4020186104</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.680861151580421e-06</v>
+        <v>4.642691234617746e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.818055555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>572108.8207622544</v>
+        <v>622063.6225979157</v>
       </c>
     </row>
     <row r="7">
@@ -5870,28 +5870,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>435.5199868245973</v>
+        <v>475.8822582000378</v>
       </c>
       <c r="AB7" t="n">
-        <v>595.8976597591927</v>
+        <v>651.123100112811</v>
       </c>
       <c r="AC7" t="n">
-        <v>539.0260234593928</v>
+        <v>588.9808252950542</v>
       </c>
       <c r="AD7" t="n">
-        <v>435519.9868245972</v>
+        <v>475882.2582000378</v>
       </c>
       <c r="AE7" t="n">
-        <v>595897.6597591927</v>
+        <v>651123.100112811</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.746358434837903e-06</v>
+        <v>4.756118840777626e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.631944444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>539026.0234593928</v>
+        <v>588980.8252950541</v>
       </c>
     </row>
     <row r="8">
@@ -5976,28 +5976,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>412.5150620879887</v>
+        <v>452.7067412628371</v>
       </c>
       <c r="AB8" t="n">
-        <v>564.421306828914</v>
+        <v>619.4133354076853</v>
       </c>
       <c r="AC8" t="n">
-        <v>510.5537294754411</v>
+        <v>560.2973960284513</v>
       </c>
       <c r="AD8" t="n">
-        <v>412515.0620879887</v>
+        <v>452706.7412628371</v>
       </c>
       <c r="AE8" t="n">
-        <v>564421.306828914</v>
+        <v>619413.3354076853</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.795104108782987e-06</v>
+        <v>4.840536160569426e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.498611111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>510553.729475441</v>
+        <v>560297.3960284513</v>
       </c>
     </row>
     <row r="9">
@@ -6082,28 +6082,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>406.4159995565809</v>
+        <v>446.6076787314292</v>
       </c>
       <c r="AB9" t="n">
-        <v>556.0763004017931</v>
+        <v>611.0683289805644</v>
       </c>
       <c r="AC9" t="n">
-        <v>503.0051587494347</v>
+        <v>552.7488253024447</v>
       </c>
       <c r="AD9" t="n">
-        <v>406415.9995565809</v>
+        <v>446607.6787314293</v>
       </c>
       <c r="AE9" t="n">
-        <v>556076.3004017931</v>
+        <v>611068.3289805644</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.810950225700119e-06</v>
+        <v>4.867978323350042e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.456944444444444</v>
       </c>
       <c r="AH9" t="n">
-        <v>503005.1587494346</v>
+        <v>552748.8253024447</v>
       </c>
     </row>
     <row r="10">
@@ -6188,28 +6188,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>408.2508864855128</v>
+        <v>448.4425656603611</v>
       </c>
       <c r="AB10" t="n">
-        <v>558.5868736474558</v>
+        <v>613.5789022262271</v>
       </c>
       <c r="AC10" t="n">
-        <v>505.2761264081429</v>
+        <v>555.019792961153</v>
       </c>
       <c r="AD10" t="n">
-        <v>408250.8864855128</v>
+        <v>448442.5656603611</v>
       </c>
       <c r="AE10" t="n">
-        <v>558586.8736474558</v>
+        <v>613578.9022262271</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.810346564103276e-06</v>
+        <v>4.866932907625066e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.458333333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>505276.126408143</v>
+        <v>555019.7929611531</v>
       </c>
     </row>
   </sheetData>
@@ -6485,28 +6485,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>518.8831340572131</v>
+        <v>573.404646024362</v>
       </c>
       <c r="AB2" t="n">
-        <v>709.9587955253528</v>
+        <v>784.557533518155</v>
       </c>
       <c r="AC2" t="n">
-        <v>642.2013245138401</v>
+        <v>709.6804636525957</v>
       </c>
       <c r="AD2" t="n">
-        <v>518883.1340572131</v>
+        <v>573404.6460243621</v>
       </c>
       <c r="AE2" t="n">
-        <v>709958.7955253528</v>
+        <v>784557.533518155</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.3410912464e-06</v>
+        <v>4.429848416957544e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.990277777777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>642201.32451384</v>
+        <v>709680.4636525956</v>
       </c>
     </row>
     <row r="3">
@@ -6591,28 +6591,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>344.4367393888195</v>
+        <v>380.8129504936604</v>
       </c>
       <c r="AB3" t="n">
-        <v>471.2735423082828</v>
+        <v>521.0450791470986</v>
       </c>
       <c r="AC3" t="n">
-        <v>426.2958568669504</v>
+        <v>471.3172680846603</v>
       </c>
       <c r="AD3" t="n">
-        <v>344436.7393888196</v>
+        <v>380812.9504936604</v>
       </c>
       <c r="AE3" t="n">
-        <v>471273.5423082828</v>
+        <v>521045.0791470986</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.920217472581097e-06</v>
+        <v>5.525679858902372e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.009722222222223</v>
       </c>
       <c r="AH3" t="n">
-        <v>426295.8568669504</v>
+        <v>471317.2680846603</v>
       </c>
     </row>
     <row r="4">
@@ -6697,28 +6697,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>319.396312399631</v>
+        <v>355.8577748504924</v>
       </c>
       <c r="AB4" t="n">
-        <v>437.0121253960025</v>
+        <v>486.9003068874677</v>
       </c>
       <c r="AC4" t="n">
-        <v>395.3043014985775</v>
+        <v>440.4312249669996</v>
       </c>
       <c r="AD4" t="n">
-        <v>319396.312399631</v>
+        <v>355857.7748504924</v>
       </c>
       <c r="AE4" t="n">
-        <v>437012.1253960025</v>
+        <v>486900.3068874676</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.989092909192922e-06</v>
+        <v>5.656007006257833e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.825000000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>395304.3014985775</v>
+        <v>440431.2249669996</v>
       </c>
     </row>
     <row r="5">
@@ -6803,28 +6803,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>320.8318152830493</v>
+        <v>357.2932777339107</v>
       </c>
       <c r="AB5" t="n">
-        <v>438.9762437710131</v>
+        <v>488.8644252624781</v>
       </c>
       <c r="AC5" t="n">
-        <v>397.0809671725345</v>
+        <v>442.2078906409566</v>
       </c>
       <c r="AD5" t="n">
-        <v>320831.8152830493</v>
+        <v>357293.2777339107</v>
       </c>
       <c r="AE5" t="n">
-        <v>438976.2437710131</v>
+        <v>488864.4252624781</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.993134499605353e-06</v>
+        <v>5.663654565026859e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.813888888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>397080.9671725345</v>
+        <v>442207.8906409566</v>
       </c>
     </row>
   </sheetData>
@@ -7100,28 +7100,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>779.4085855461029</v>
+        <v>836.3883702199378</v>
       </c>
       <c r="AB2" t="n">
-        <v>1066.421211824196</v>
+        <v>1144.383466985623</v>
       </c>
       <c r="AC2" t="n">
-        <v>964.6434680992651</v>
+        <v>1035.165115048798</v>
       </c>
       <c r="AD2" t="n">
-        <v>779408.585546103</v>
+        <v>836388.3702199378</v>
       </c>
       <c r="AE2" t="n">
-        <v>1066421.211824196</v>
+        <v>1144383.466985623</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.934358367022874e-06</v>
+        <v>3.523980850862734e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.56805555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>964643.4680992651</v>
+        <v>1035165.115048798</v>
       </c>
     </row>
     <row r="3">
@@ -7206,28 +7206,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>457.8534950761632</v>
+        <v>495.9253590466247</v>
       </c>
       <c r="AB3" t="n">
-        <v>626.4553510338313</v>
+        <v>678.5469549303139</v>
       </c>
       <c r="AC3" t="n">
-        <v>566.6673315667689</v>
+        <v>613.7873858983966</v>
       </c>
       <c r="AD3" t="n">
-        <v>457853.4950761632</v>
+        <v>495925.3590466247</v>
       </c>
       <c r="AE3" t="n">
-        <v>626455.3510338314</v>
+        <v>678546.9549303139</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.608572555911916e-06</v>
+        <v>4.752252680700373e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.577777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>566667.3315667689</v>
+        <v>613787.3858983966</v>
       </c>
     </row>
     <row r="4">
@@ -7312,28 +7312,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>378.7542459813782</v>
+        <v>416.7407690972681</v>
       </c>
       <c r="AB4" t="n">
-        <v>518.2282688097611</v>
+        <v>570.2031055840459</v>
       </c>
       <c r="AC4" t="n">
-        <v>468.7692901725</v>
+        <v>515.7837214721889</v>
       </c>
       <c r="AD4" t="n">
-        <v>378754.2459813782</v>
+        <v>416740.7690972681</v>
       </c>
       <c r="AE4" t="n">
-        <v>518228.268809761</v>
+        <v>570203.105584046</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.842332361904269e-06</v>
+        <v>5.178112280483985e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.872222222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>468769.2901725</v>
+        <v>515783.7214721888</v>
       </c>
     </row>
     <row r="5">
@@ -7418,28 +7418,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>349.7845103492136</v>
+        <v>387.7710334651035</v>
       </c>
       <c r="AB5" t="n">
-        <v>478.590598463298</v>
+        <v>530.5654352375828</v>
       </c>
       <c r="AC5" t="n">
-        <v>432.9145834520837</v>
+        <v>479.9290147517725</v>
       </c>
       <c r="AD5" t="n">
-        <v>349784.5103492136</v>
+        <v>387771.0334651035</v>
       </c>
       <c r="AE5" t="n">
-        <v>478590.5984632979</v>
+        <v>530565.4352375829</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.931905381981284e-06</v>
+        <v>5.34129487006337e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.631944444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>432914.5834520837</v>
+        <v>479929.0147517725</v>
       </c>
     </row>
     <row r="6">
@@ -7524,28 +7524,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>350.3064516067525</v>
+        <v>388.2929747226424</v>
       </c>
       <c r="AB6" t="n">
-        <v>479.3047415182859</v>
+        <v>531.2795782925709</v>
       </c>
       <c r="AC6" t="n">
-        <v>433.5605696962097</v>
+        <v>480.5750009958984</v>
       </c>
       <c r="AD6" t="n">
-        <v>350306.4516067525</v>
+        <v>388292.9747226425</v>
       </c>
       <c r="AE6" t="n">
-        <v>479304.7415182859</v>
+        <v>531279.5782925709</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.935771843279572e-06</v>
+        <v>5.34833872285097e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.622222222222224</v>
       </c>
       <c r="AH6" t="n">
-        <v>433560.5696962096</v>
+        <v>480575.0009958984</v>
       </c>
     </row>
     <row r="7">
@@ -7630,28 +7630,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>351.0933742650117</v>
+        <v>389.0798973809016</v>
       </c>
       <c r="AB7" t="n">
-        <v>480.3814438158936</v>
+        <v>532.3562805901786</v>
       </c>
       <c r="AC7" t="n">
-        <v>434.5345130376949</v>
+        <v>481.5489443373837</v>
       </c>
       <c r="AD7" t="n">
-        <v>351093.3742650117</v>
+        <v>389079.8973809016</v>
       </c>
       <c r="AE7" t="n">
-        <v>480381.4438158937</v>
+        <v>532356.2805901786</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.940121612240147e-06</v>
+        <v>5.356263057237019e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.609722222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>434534.5130376949</v>
+        <v>481548.9443373837</v>
       </c>
     </row>
   </sheetData>
@@ -7927,28 +7927,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>369.8467778428079</v>
+        <v>413.7746868235729</v>
       </c>
       <c r="AB2" t="n">
-        <v>506.0406779328093</v>
+        <v>566.1447809628617</v>
       </c>
       <c r="AC2" t="n">
-        <v>457.7448658634535</v>
+        <v>512.112717656956</v>
       </c>
       <c r="AD2" t="n">
-        <v>369846.7778428079</v>
+        <v>413774.686823573</v>
       </c>
       <c r="AE2" t="n">
-        <v>506040.6779328093</v>
+        <v>566144.7809628616</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.699887377061246e-06</v>
+        <v>5.290909354064497e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.997222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>457744.8658634535</v>
+        <v>512112.7176569559</v>
       </c>
     </row>
     <row r="3">
@@ -8033,28 +8033,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>305.5004181757992</v>
+        <v>340.6257666980479</v>
       </c>
       <c r="AB3" t="n">
-        <v>417.9991498753692</v>
+        <v>466.0592013445199</v>
       </c>
       <c r="AC3" t="n">
-        <v>378.1058976767546</v>
+        <v>421.5791652863955</v>
       </c>
       <c r="AD3" t="n">
-        <v>305500.4181757992</v>
+        <v>340625.7666980479</v>
       </c>
       <c r="AE3" t="n">
-        <v>417999.1498753692</v>
+        <v>466059.2013445199</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.999136408748218e-06</v>
+        <v>5.877341037993003e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.100000000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>378105.8976767546</v>
+        <v>421579.1652863955</v>
       </c>
     </row>
     <row r="4">
@@ -8139,28 +8139,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>307.0859943004398</v>
+        <v>342.2113428226885</v>
       </c>
       <c r="AB4" t="n">
-        <v>420.1686050797843</v>
+        <v>468.2286565489349</v>
       </c>
       <c r="AC4" t="n">
-        <v>380.0683031213098</v>
+        <v>423.5415707309507</v>
       </c>
       <c r="AD4" t="n">
-        <v>307085.9943004398</v>
+        <v>342211.3428226885</v>
       </c>
       <c r="AE4" t="n">
-        <v>420168.6050797843</v>
+        <v>468228.6565489349</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.003159043306254e-06</v>
+        <v>5.885224105632018e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.088888888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>380068.3031213098</v>
+        <v>423541.5707309507</v>
       </c>
     </row>
   </sheetData>
@@ -8436,28 +8436,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1785.059327621396</v>
+        <v>1876.555345176969</v>
       </c>
       <c r="AB2" t="n">
-        <v>2442.396923311144</v>
+        <v>2567.58581105009</v>
       </c>
       <c r="AC2" t="n">
-        <v>2209.297988875939</v>
+        <v>2322.539024872788</v>
       </c>
       <c r="AD2" t="n">
-        <v>1785059.327621396</v>
+        <v>1876555.345176969</v>
       </c>
       <c r="AE2" t="n">
-        <v>2442396.923311144</v>
+        <v>2567585.81105009</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.247178646907986e-06</v>
+        <v>2.145747424137701e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.65555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>2209297.988875939</v>
+        <v>2322539.024872788</v>
       </c>
     </row>
     <row r="3">
@@ -8542,28 +8542,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>742.5651866613322</v>
+        <v>803.4487438922854</v>
       </c>
       <c r="AB3" t="n">
-        <v>1016.01044805401</v>
+        <v>1099.314017050377</v>
       </c>
       <c r="AC3" t="n">
-        <v>919.0438368713543</v>
+        <v>994.3970301600017</v>
       </c>
       <c r="AD3" t="n">
-        <v>742565.1866613321</v>
+        <v>803448.7438922854</v>
       </c>
       <c r="AE3" t="n">
-        <v>1016010.44805401</v>
+        <v>1099314.017050377</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.079329023619346e-06</v>
+        <v>3.577446508908317e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.990277777777779</v>
       </c>
       <c r="AH3" t="n">
-        <v>919043.8368713543</v>
+        <v>994397.0301600017</v>
       </c>
     </row>
     <row r="4">
@@ -8648,28 +8648,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>592.0182221323337</v>
+        <v>642.8114137278425</v>
       </c>
       <c r="AB4" t="n">
-        <v>810.0254495221042</v>
+        <v>879.5229351005421</v>
       </c>
       <c r="AC4" t="n">
-        <v>732.7177574975726</v>
+        <v>795.5825005927379</v>
       </c>
       <c r="AD4" t="n">
-        <v>592018.2221323337</v>
+        <v>642811.4137278425</v>
       </c>
       <c r="AE4" t="n">
-        <v>810025.4495221041</v>
+        <v>879522.9351005421</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.37859805737194e-06</v>
+        <v>4.092333257403285e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.733333333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>732717.7574975726</v>
+        <v>795582.5005927379</v>
       </c>
     </row>
     <row r="5">
@@ -8754,28 +8754,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>531.4200574059337</v>
+        <v>572.0376320199773</v>
       </c>
       <c r="AB5" t="n">
-        <v>727.1123671410952</v>
+        <v>782.6871246489545</v>
       </c>
       <c r="AC5" t="n">
-        <v>657.7177833297652</v>
+        <v>707.9885639807362</v>
       </c>
       <c r="AD5" t="n">
-        <v>531420.0574059336</v>
+        <v>572037.6320199773</v>
       </c>
       <c r="AE5" t="n">
-        <v>727112.3671410952</v>
+        <v>782687.1246489545</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.536533139652169e-06</v>
+        <v>4.36405759843811e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.18888888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>657717.7833297652</v>
+        <v>707988.5639807362</v>
       </c>
     </row>
     <row r="6">
@@ -8860,28 +8860,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>484.0136773904761</v>
+        <v>524.7165033505404</v>
       </c>
       <c r="AB6" t="n">
-        <v>662.2488665820653</v>
+        <v>717.9402687425736</v>
       </c>
       <c r="AC6" t="n">
-        <v>599.044764227594</v>
+        <v>649.4210571292775</v>
       </c>
       <c r="AD6" t="n">
-        <v>484013.677390476</v>
+        <v>524716.5033505404</v>
       </c>
       <c r="AE6" t="n">
-        <v>662248.8665820652</v>
+        <v>717940.2687425736</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.635990364762352e-06</v>
+        <v>4.535171885169321e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.880555555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>599044.764227594</v>
+        <v>649421.0571292775</v>
       </c>
     </row>
     <row r="7">
@@ -8966,28 +8966,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>457.3806806175215</v>
+        <v>498.0835065775859</v>
       </c>
       <c r="AB7" t="n">
-        <v>625.8084254324161</v>
+        <v>681.4998275929245</v>
       </c>
       <c r="AC7" t="n">
-        <v>566.082147636787</v>
+        <v>616.4584405384704</v>
       </c>
       <c r="AD7" t="n">
-        <v>457380.6806175215</v>
+        <v>498083.5065775859</v>
       </c>
       <c r="AE7" t="n">
-        <v>625808.4254324161</v>
+        <v>681499.8275929245</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.700151491938695e-06</v>
+        <v>4.645559898714719e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.693055555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>566082.147636787</v>
+        <v>616458.4405384704</v>
       </c>
     </row>
     <row r="8">
@@ -9072,28 +9072,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>434.6052591780859</v>
+        <v>475.3080851381503</v>
       </c>
       <c r="AB8" t="n">
-        <v>594.6460890383003</v>
+        <v>650.3374911988086</v>
       </c>
       <c r="AC8" t="n">
-        <v>537.8939008915117</v>
+        <v>588.2701937931953</v>
       </c>
       <c r="AD8" t="n">
-        <v>434605.2591780859</v>
+        <v>475308.0851381503</v>
       </c>
       <c r="AE8" t="n">
-        <v>594646.0890383002</v>
+        <v>650337.4911988087</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.752198280417407e-06</v>
+        <v>4.735105420192105e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.547222222222223</v>
       </c>
       <c r="AH8" t="n">
-        <v>537893.9008915117</v>
+        <v>588270.1937931953</v>
       </c>
     </row>
     <row r="9">
@@ -9178,28 +9178,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>415.8240764104166</v>
+        <v>456.3563101698887</v>
       </c>
       <c r="AB9" t="n">
-        <v>568.9488462082686</v>
+        <v>624.4068365939302</v>
       </c>
       <c r="AC9" t="n">
-        <v>514.6491668508716</v>
+        <v>564.8143244699039</v>
       </c>
       <c r="AD9" t="n">
-        <v>415824.0764104166</v>
+        <v>456356.3101698887</v>
       </c>
       <c r="AE9" t="n">
-        <v>568948.8462082687</v>
+        <v>624406.8365939301</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.792280289935495e-06</v>
+        <v>4.804065764318368e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.438888888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>514649.1668508716</v>
+        <v>564814.3244699039</v>
       </c>
     </row>
     <row r="10">
@@ -9284,28 +9284,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>412.4092606329702</v>
+        <v>452.9414943924423</v>
       </c>
       <c r="AB10" t="n">
-        <v>564.2765446105269</v>
+        <v>619.7345349961884</v>
       </c>
       <c r="AC10" t="n">
-        <v>510.4227831600018</v>
+        <v>560.5879407790342</v>
       </c>
       <c r="AD10" t="n">
-        <v>412409.2606329703</v>
+        <v>452941.4943924423</v>
       </c>
       <c r="AE10" t="n">
-        <v>564276.5446105269</v>
+        <v>619734.5349961884</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.801852113103994e-06</v>
+        <v>4.820533906199266e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.41388888888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>510422.7831600017</v>
+        <v>560587.9407790342</v>
       </c>
     </row>
     <row r="11">
@@ -9390,28 +9390,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>412.8653112887156</v>
+        <v>453.3975450481878</v>
       </c>
       <c r="AB11" t="n">
-        <v>564.9005332372527</v>
+        <v>620.3585236229142</v>
       </c>
       <c r="AC11" t="n">
-        <v>510.9872191879665</v>
+        <v>561.1523768069989</v>
       </c>
       <c r="AD11" t="n">
-        <v>412865.3112887156</v>
+        <v>453397.5450481878</v>
       </c>
       <c r="AE11" t="n">
-        <v>564900.5332372527</v>
+        <v>620358.5236229142</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.806787584425251e-06</v>
+        <v>4.829025291856605e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.399999999999999</v>
       </c>
       <c r="AH11" t="n">
-        <v>510987.2191879665</v>
+        <v>561152.3768069989</v>
       </c>
     </row>
   </sheetData>
@@ -9687,28 +9687,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>303.5797179316707</v>
+        <v>338.1349607179275</v>
       </c>
       <c r="AB2" t="n">
-        <v>415.3711630660382</v>
+        <v>462.6511707159147</v>
       </c>
       <c r="AC2" t="n">
-        <v>375.7287222401035</v>
+        <v>418.4963923177833</v>
       </c>
       <c r="AD2" t="n">
-        <v>303579.7179316707</v>
+        <v>338134.9607179275</v>
       </c>
       <c r="AE2" t="n">
-        <v>415371.1630660382</v>
+        <v>462651.1707159147</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.915154204945728e-06</v>
+        <v>5.843894126351449e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.527777777777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>375728.7222401035</v>
+        <v>418496.3923177833</v>
       </c>
     </row>
     <row r="3">
@@ -9793,28 +9793,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>294.245546113967</v>
+        <v>328.6301966996316</v>
       </c>
       <c r="AB3" t="n">
-        <v>402.5997373904584</v>
+        <v>449.6463332654878</v>
       </c>
       <c r="AC3" t="n">
-        <v>364.1761835061924</v>
+        <v>406.7327183012212</v>
       </c>
       <c r="AD3" t="n">
-        <v>294245.546113967</v>
+        <v>328630.1966996316</v>
       </c>
       <c r="AE3" t="n">
-        <v>402599.7373904584</v>
+        <v>449646.3332654878</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.979768355371553e-06</v>
+        <v>5.973423553478168e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.343055555555557</v>
       </c>
       <c r="AH3" t="n">
-        <v>364176.1835061925</v>
+        <v>406732.7183012212</v>
       </c>
     </row>
   </sheetData>
@@ -10090,28 +10090,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1115.075106700863</v>
+        <v>1183.604276710475</v>
       </c>
       <c r="AB2" t="n">
-        <v>1525.694954629915</v>
+        <v>1619.459588330674</v>
       </c>
       <c r="AC2" t="n">
-        <v>1380.084769486353</v>
+        <v>1464.900638146202</v>
       </c>
       <c r="AD2" t="n">
-        <v>1115075.106700863</v>
+        <v>1183604.276710475</v>
       </c>
       <c r="AE2" t="n">
-        <v>1525694.954629915</v>
+        <v>1619459.588330674</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.609162136187691e-06</v>
+        <v>2.849945715038132e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.42083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1380084.769486353</v>
+        <v>1464900.638146202</v>
       </c>
     </row>
     <row r="3">
@@ -10196,28 +10196,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>579.8052985738702</v>
+        <v>619.0623950596812</v>
       </c>
       <c r="AB3" t="n">
-        <v>793.3151887132536</v>
+        <v>847.0284800260056</v>
       </c>
       <c r="AC3" t="n">
-        <v>717.60230052732</v>
+        <v>766.1892707042608</v>
       </c>
       <c r="AD3" t="n">
-        <v>579805.2985738702</v>
+        <v>619062.3950596811</v>
       </c>
       <c r="AE3" t="n">
-        <v>793315.1887132536</v>
+        <v>847028.4800260055</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.358466642351425e-06</v>
+        <v>4.177019673949018e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.156944444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>717602.30052732</v>
+        <v>766189.2707042608</v>
       </c>
     </row>
     <row r="4">
@@ -10302,28 +10302,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>477.5530370707589</v>
+        <v>516.724792701998</v>
       </c>
       <c r="AB4" t="n">
-        <v>653.4091334732932</v>
+        <v>707.0056576638473</v>
       </c>
       <c r="AC4" t="n">
-        <v>591.0486828400799</v>
+        <v>639.5300299850818</v>
       </c>
       <c r="AD4" t="n">
-        <v>477553.0370707589</v>
+        <v>516724.792701998</v>
       </c>
       <c r="AE4" t="n">
-        <v>653409.1334732932</v>
+        <v>707005.6576638473</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.619533723872262e-06</v>
+        <v>4.639388874407905e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.244444444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>591048.6828400799</v>
+        <v>639530.0299850818</v>
       </c>
     </row>
     <row r="5">
@@ -10408,28 +10408,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>420.2074745512275</v>
+        <v>459.4644815284872</v>
       </c>
       <c r="AB5" t="n">
-        <v>574.9464049264039</v>
+        <v>628.6595737696074</v>
       </c>
       <c r="AC5" t="n">
-        <v>520.0743269825746</v>
+        <v>568.6611863782887</v>
       </c>
       <c r="AD5" t="n">
-        <v>420207.4745512275</v>
+        <v>459464.4815284872</v>
       </c>
       <c r="AE5" t="n">
-        <v>574946.4049264039</v>
+        <v>628659.5737696073</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.761962220997387e-06</v>
+        <v>4.891640326236577e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.819444444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>520074.3269825745</v>
+        <v>568661.1863782887</v>
       </c>
     </row>
     <row r="6">
@@ -10514,28 +10514,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>387.8445370852073</v>
+        <v>427.1015440624671</v>
       </c>
       <c r="AB6" t="n">
-        <v>530.6660061333598</v>
+        <v>584.3791749765633</v>
       </c>
       <c r="AC6" t="n">
-        <v>480.0199873024085</v>
+        <v>528.6068466981228</v>
       </c>
       <c r="AD6" t="n">
-        <v>387844.5370852073</v>
+        <v>427101.5440624671</v>
       </c>
       <c r="AE6" t="n">
-        <v>530666.0061333599</v>
+        <v>584379.1749765633</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.845304660363181e-06</v>
+        <v>5.039245979271696e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.590277777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>480019.9873024086</v>
+        <v>528606.8466981228</v>
       </c>
     </row>
     <row r="7">
@@ -10620,28 +10620,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>378.1602463693516</v>
+        <v>417.4172533466114</v>
       </c>
       <c r="AB7" t="n">
-        <v>517.4155323351728</v>
+        <v>571.1287011783763</v>
       </c>
       <c r="AC7" t="n">
-        <v>468.0341201263636</v>
+        <v>516.6209795220778</v>
       </c>
       <c r="AD7" t="n">
-        <v>378160.2463693516</v>
+        <v>417417.2533466114</v>
       </c>
       <c r="AE7" t="n">
-        <v>517415.5323351728</v>
+        <v>571128.7011783763</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.870493979723738e-06</v>
+        <v>5.083858135599474e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.523611111111112</v>
       </c>
       <c r="AH7" t="n">
-        <v>468034.1201263636</v>
+        <v>516620.9795220778</v>
       </c>
     </row>
     <row r="8">
@@ -10726,28 +10726,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>378.9386595844732</v>
+        <v>418.1956665617329</v>
       </c>
       <c r="AB8" t="n">
-        <v>518.4805916372695</v>
+        <v>572.1937604804731</v>
       </c>
       <c r="AC8" t="n">
-        <v>468.9975316634884</v>
+        <v>517.5843910592025</v>
       </c>
       <c r="AD8" t="n">
-        <v>378938.6595844732</v>
+        <v>418195.6665617329</v>
       </c>
       <c r="AE8" t="n">
-        <v>518480.5916372695</v>
+        <v>572193.7604804731</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.875158668494212e-06</v>
+        <v>5.092119646030544e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.51111111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>468997.5316634884</v>
+        <v>517584.3910592025</v>
       </c>
     </row>
   </sheetData>
@@ -11023,28 +11023,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1403.693701432451</v>
+        <v>1483.625894128485</v>
       </c>
       <c r="AB2" t="n">
-        <v>1920.595648895428</v>
+        <v>2029.962401301604</v>
       </c>
       <c r="AC2" t="n">
-        <v>1737.296695737771</v>
+        <v>1836.225638791503</v>
       </c>
       <c r="AD2" t="n">
-        <v>1403693.701432451</v>
+        <v>1483625.894128485</v>
       </c>
       <c r="AE2" t="n">
-        <v>1920595.648895428</v>
+        <v>2029962.401301604</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.419891329374718e-06</v>
+        <v>2.476166494648352e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.90138888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>1737296.695737771</v>
+        <v>1836225.638791503</v>
       </c>
     </row>
     <row r="3">
@@ -11129,28 +11129,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>657.4278187261108</v>
+        <v>707.438777195239</v>
       </c>
       <c r="AB3" t="n">
-        <v>899.5217452494513</v>
+        <v>967.9489449546855</v>
       </c>
       <c r="AC3" t="n">
-        <v>813.6726523695418</v>
+        <v>875.5692561730864</v>
       </c>
       <c r="AD3" t="n">
-        <v>657427.8187261107</v>
+        <v>707438.777195239</v>
       </c>
       <c r="AE3" t="n">
-        <v>899521.7452494514</v>
+        <v>967948.9449546855</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.215152352908626e-06</v>
+        <v>3.863032278131656e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.552777777777777</v>
       </c>
       <c r="AH3" t="n">
-        <v>813672.6523695418</v>
+        <v>875569.2561730864</v>
       </c>
     </row>
     <row r="4">
@@ -11235,28 +11235,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>534.1477984086356</v>
+        <v>574.0713138379176</v>
       </c>
       <c r="AB4" t="n">
-        <v>730.844582720432</v>
+        <v>785.4696978319699</v>
       </c>
       <c r="AC4" t="n">
-        <v>661.0938014924075</v>
+        <v>710.5055722845307</v>
       </c>
       <c r="AD4" t="n">
-        <v>534147.7984086355</v>
+        <v>574071.3138379176</v>
       </c>
       <c r="AE4" t="n">
-        <v>730844.582720432</v>
+        <v>785469.6978319699</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.49425545542091e-06</v>
+        <v>4.349763717852234e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.483333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>661093.8014924075</v>
+        <v>710505.5722845306</v>
       </c>
     </row>
     <row r="5">
@@ -11341,28 +11341,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>481.9563641685504</v>
+        <v>521.8798795978323</v>
       </c>
       <c r="AB5" t="n">
-        <v>659.4339598695727</v>
+        <v>714.0590749811106</v>
       </c>
       <c r="AC5" t="n">
-        <v>596.4985082609955</v>
+        <v>645.9102790531188</v>
       </c>
       <c r="AD5" t="n">
-        <v>481956.3641685504</v>
+        <v>521879.8795978323</v>
       </c>
       <c r="AE5" t="n">
-        <v>659433.9598695728</v>
+        <v>714059.0749811106</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.64203384485154e-06</v>
+        <v>4.607476325127867e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.008333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>596498.5082609955</v>
+        <v>645910.2790531188</v>
       </c>
     </row>
     <row r="6">
@@ -11447,28 +11447,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>437.9515850678432</v>
+        <v>477.9603518431458</v>
       </c>
       <c r="AB6" t="n">
-        <v>599.2246797501451</v>
+        <v>653.9664395143325</v>
       </c>
       <c r="AC6" t="n">
-        <v>542.0355173319108</v>
+        <v>591.5528003747463</v>
       </c>
       <c r="AD6" t="n">
-        <v>437951.5850678432</v>
+        <v>477960.3518431458</v>
       </c>
       <c r="AE6" t="n">
-        <v>599224.6797501452</v>
+        <v>653966.4395143325</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.733900204466664e-06</v>
+        <v>4.767683234599213e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.740277777777777</v>
       </c>
       <c r="AH6" t="n">
-        <v>542035.5173319108</v>
+        <v>591552.8003747463</v>
       </c>
     </row>
     <row r="7">
@@ -11553,28 +11553,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>411.4931690186363</v>
+        <v>451.5019357939388</v>
       </c>
       <c r="AB7" t="n">
-        <v>563.0231076486856</v>
+        <v>617.7648674128727</v>
       </c>
       <c r="AC7" t="n">
-        <v>509.2889724625887</v>
+        <v>558.8062555054242</v>
       </c>
       <c r="AD7" t="n">
-        <v>411493.1690186363</v>
+        <v>451501.9357939388</v>
       </c>
       <c r="AE7" t="n">
-        <v>563023.1076486856</v>
+        <v>617764.8674128727</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.795601490775329e-06</v>
+        <v>4.875284890214297e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.569444444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>509288.9724625887</v>
+        <v>558806.2555054242</v>
       </c>
     </row>
     <row r="8">
@@ -11659,28 +11659,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>397.5863960803365</v>
+        <v>437.4245706550469</v>
       </c>
       <c r="AB8" t="n">
-        <v>543.9952473909819</v>
+        <v>598.5035953803222</v>
       </c>
       <c r="AC8" t="n">
-        <v>492.0771044821108</v>
+        <v>541.3832522422953</v>
       </c>
       <c r="AD8" t="n">
-        <v>397586.3960803365</v>
+        <v>437424.5706550469</v>
       </c>
       <c r="AE8" t="n">
-        <v>543995.247390982</v>
+        <v>598503.5953803222</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.826223610647037e-06</v>
+        <v>4.928687193371413e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.487499999999999</v>
       </c>
       <c r="AH8" t="n">
-        <v>492077.1044821108</v>
+        <v>541383.2522422953</v>
       </c>
     </row>
     <row r="9">
@@ -11765,28 +11765,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>398.4813338544604</v>
+        <v>438.3195084291708</v>
       </c>
       <c r="AB9" t="n">
-        <v>545.2197407354065</v>
+        <v>599.7280887247468</v>
       </c>
       <c r="AC9" t="n">
-        <v>493.1847339003307</v>
+        <v>542.4908816605152</v>
       </c>
       <c r="AD9" t="n">
-        <v>398481.3338544604</v>
+        <v>438319.5084291708</v>
       </c>
       <c r="AE9" t="n">
-        <v>545219.7407354065</v>
+        <v>599728.0887247468</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.827747099197868e-06</v>
+        <v>4.931344024374256e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.483333333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>493184.7339003307</v>
+        <v>542490.8816605152</v>
       </c>
     </row>
   </sheetData>
@@ -12062,28 +12062,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2293.56606129104</v>
+        <v>2396.854973674962</v>
       </c>
       <c r="AB2" t="n">
-        <v>3138.158270051925</v>
+        <v>3279.482716760829</v>
       </c>
       <c r="AC2" t="n">
-        <v>2838.656849190846</v>
+        <v>2966.493489055953</v>
       </c>
       <c r="AD2" t="n">
-        <v>2293566.06129104</v>
+        <v>2396854.973674962</v>
       </c>
       <c r="AE2" t="n">
-        <v>3138158.270051925</v>
+        <v>3279482.716760829</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.086557126142418e-06</v>
+        <v>1.847075101370469e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.79722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>2838656.849190846</v>
+        <v>2966493.489055953</v>
       </c>
     </row>
     <row r="3">
@@ -12168,28 +12168,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>842.1015610249428</v>
+        <v>893.703436298169</v>
       </c>
       <c r="AB3" t="n">
-        <v>1152.200506693221</v>
+        <v>1222.804468956117</v>
       </c>
       <c r="AC3" t="n">
-        <v>1042.236107457987</v>
+        <v>1106.101726655796</v>
       </c>
       <c r="AD3" t="n">
-        <v>842101.5610249428</v>
+        <v>893703.436298169</v>
       </c>
       <c r="AE3" t="n">
-        <v>1152200.506693221</v>
+        <v>1222804.468956118</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.9572439232583e-06</v>
+        <v>3.327184950499518e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.43472222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>1042236.107457987</v>
+        <v>1106101.726655796</v>
       </c>
     </row>
     <row r="4">
@@ -12274,28 +12274,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>652.0763472845299</v>
+        <v>703.6781330492049</v>
       </c>
       <c r="AB4" t="n">
-        <v>892.199625932823</v>
+        <v>962.8034657261713</v>
       </c>
       <c r="AC4" t="n">
-        <v>807.0493458438333</v>
+        <v>870.9148542604161</v>
       </c>
       <c r="AD4" t="n">
-        <v>652076.3472845299</v>
+        <v>703678.1330492049</v>
       </c>
       <c r="AE4" t="n">
-        <v>892199.6259328229</v>
+        <v>962803.4657261714</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.270167669967065e-06</v>
+        <v>3.859134580451658e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.995833333333332</v>
       </c>
       <c r="AH4" t="n">
-        <v>807049.3458438333</v>
+        <v>870914.8542604161</v>
       </c>
     </row>
     <row r="5">
@@ -12380,28 +12380,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>582.3923850943963</v>
+        <v>623.6568350437732</v>
       </c>
       <c r="AB5" t="n">
-        <v>796.8549546248391</v>
+        <v>853.3147955046268</v>
       </c>
       <c r="AC5" t="n">
-        <v>720.8042361483969</v>
+        <v>771.8756290565019</v>
       </c>
       <c r="AD5" t="n">
-        <v>582392.3850943963</v>
+        <v>623656.8350437732</v>
       </c>
       <c r="AE5" t="n">
-        <v>796854.9546248391</v>
+        <v>853314.7955046268</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.435011429394004e-06</v>
+        <v>4.139358046230016e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.387499999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>720804.2361483969</v>
+        <v>771875.6290565019</v>
       </c>
     </row>
     <row r="6">
@@ -12486,28 +12486,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>541.704527203543</v>
+        <v>582.9689771529198</v>
       </c>
       <c r="AB6" t="n">
-        <v>741.18403243697</v>
+        <v>797.6438733167577</v>
       </c>
       <c r="AC6" t="n">
-        <v>670.4464686395078</v>
+        <v>721.5178615476129</v>
       </c>
       <c r="AD6" t="n">
-        <v>541704.527203543</v>
+        <v>582968.9771529199</v>
       </c>
       <c r="AE6" t="n">
-        <v>741184.03243697</v>
+        <v>797643.8733167576</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.538829176187419e-06</v>
+        <v>4.315841335114514e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.044444444444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>670446.4686395078</v>
+        <v>721517.8615476129</v>
       </c>
     </row>
     <row r="7">
@@ -12592,28 +12592,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>502.1221627831848</v>
+        <v>543.4718640785823</v>
       </c>
       <c r="AB7" t="n">
-        <v>687.0256951863618</v>
+        <v>743.6021807187986</v>
       </c>
       <c r="AC7" t="n">
-        <v>621.456927084394</v>
+        <v>672.6338322432114</v>
       </c>
       <c r="AD7" t="n">
-        <v>502122.1627831848</v>
+        <v>543471.8640785823</v>
       </c>
       <c r="AE7" t="n">
-        <v>687025.6951863618</v>
+        <v>743602.1807187987</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.611325138183388e-06</v>
+        <v>4.439079665737825e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.820833333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>621456.927084394</v>
+        <v>672633.8322432113</v>
       </c>
     </row>
     <row r="8">
@@ -12698,28 +12698,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>480.2713464698472</v>
+        <v>521.6210477652446</v>
       </c>
       <c r="AB8" t="n">
-        <v>657.1284443164725</v>
+        <v>713.7049298489096</v>
       </c>
       <c r="AC8" t="n">
-        <v>594.4130278764719</v>
+        <v>645.5899330352892</v>
       </c>
       <c r="AD8" t="n">
-        <v>480271.3464698472</v>
+        <v>521621.0477652446</v>
       </c>
       <c r="AE8" t="n">
-        <v>657128.4443164725</v>
+        <v>713704.9298489096</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.662351707782984e-06</v>
+        <v>4.525821452200885e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.670833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>594413.0278764719</v>
+        <v>645589.9330352892</v>
       </c>
     </row>
     <row r="9">
@@ -12804,28 +12804,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>460.9666829923731</v>
+        <v>502.3163842877706</v>
       </c>
       <c r="AB9" t="n">
-        <v>630.7149520849473</v>
+        <v>687.2914376173842</v>
       </c>
       <c r="AC9" t="n">
-        <v>570.5204022719541</v>
+        <v>621.6973074307714</v>
       </c>
       <c r="AD9" t="n">
-        <v>460966.6829923731</v>
+        <v>502316.3842877705</v>
       </c>
       <c r="AE9" t="n">
-        <v>630714.9520849473</v>
+        <v>687291.4376173842</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.700437821691617e-06</v>
+        <v>4.590565321635849e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.5625</v>
       </c>
       <c r="AH9" t="n">
-        <v>570520.4022719541</v>
+        <v>621697.3074307714</v>
       </c>
     </row>
     <row r="10">
@@ -12910,28 +12910,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>447.8257774526256</v>
+        <v>489.175478748023</v>
       </c>
       <c r="AB10" t="n">
-        <v>612.734985389628</v>
+        <v>669.3114709220649</v>
       </c>
       <c r="AC10" t="n">
-        <v>554.2564183629943</v>
+        <v>605.4333235218118</v>
       </c>
       <c r="AD10" t="n">
-        <v>447825.7774526256</v>
+        <v>489175.478748023</v>
       </c>
       <c r="AE10" t="n">
-        <v>612734.985389628</v>
+        <v>669311.470922065</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.718966201430952e-06</v>
+        <v>4.622062339198805e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.51111111111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>554256.4183629943</v>
+        <v>605433.3235218117</v>
       </c>
     </row>
     <row r="11">
@@ -13016,28 +13016,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>434.4870500406185</v>
+        <v>475.6661591354238</v>
       </c>
       <c r="AB11" t="n">
-        <v>594.4843500813981</v>
+        <v>650.8274238389881</v>
       </c>
       <c r="AC11" t="n">
-        <v>537.7475980736543</v>
+        <v>588.7133679498207</v>
       </c>
       <c r="AD11" t="n">
-        <v>434487.0500406185</v>
+        <v>475666.1591354238</v>
       </c>
       <c r="AE11" t="n">
-        <v>594484.3500813982</v>
+        <v>650827.4238389882</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.746758771039953e-06</v>
+        <v>4.669307865543238e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.434722222222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>537747.5980736543</v>
+        <v>588713.3679498207</v>
       </c>
     </row>
     <row r="12">
@@ -13122,28 +13122,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>436.0390914811781</v>
+        <v>477.2182005759834</v>
       </c>
       <c r="AB12" t="n">
-        <v>596.6079216516077</v>
+        <v>652.9509954091976</v>
       </c>
       <c r="AC12" t="n">
-        <v>539.6684989536545</v>
+        <v>590.6342688298208</v>
       </c>
       <c r="AD12" t="n">
-        <v>436039.0914811781</v>
+        <v>477218.2005759834</v>
       </c>
       <c r="AE12" t="n">
-        <v>596607.9216516077</v>
+        <v>652950.9954091976</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.746023517875695e-06</v>
+        <v>4.668057983893915e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.4375</v>
       </c>
       <c r="AH12" t="n">
-        <v>539668.4989536545</v>
+        <v>590634.2688298208</v>
       </c>
     </row>
   </sheetData>
@@ -13419,28 +13419,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>883.5743764145632</v>
+        <v>941.1380032354665</v>
       </c>
       <c r="AB2" t="n">
-        <v>1208.945442360784</v>
+        <v>1287.706536105128</v>
       </c>
       <c r="AC2" t="n">
-        <v>1093.565386107455</v>
+        <v>1164.809631606729</v>
       </c>
       <c r="AD2" t="n">
-        <v>883574.3764145632</v>
+        <v>941138.0032354665</v>
       </c>
       <c r="AE2" t="n">
-        <v>1208945.442360784</v>
+        <v>1287706.536105128</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.819628994600325e-06</v>
+        <v>3.28122167416498e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.14305555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>1093565.386107455</v>
+        <v>1164809.631606729</v>
       </c>
     </row>
     <row r="3">
@@ -13525,28 +13525,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>495.4655416023742</v>
+        <v>543.4209325535725</v>
       </c>
       <c r="AB3" t="n">
-        <v>677.9178124173765</v>
+        <v>743.5324939593402</v>
       </c>
       <c r="AC3" t="n">
-        <v>613.2182878638866</v>
+        <v>672.5707962902695</v>
       </c>
       <c r="AD3" t="n">
-        <v>495465.5416023742</v>
+        <v>543420.9325535725</v>
       </c>
       <c r="AE3" t="n">
-        <v>677917.8124173764</v>
+        <v>743532.4939593402</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.518335983959009e-06</v>
+        <v>4.54115571796045e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.773611111111112</v>
       </c>
       <c r="AH3" t="n">
-        <v>613218.2878638867</v>
+        <v>672570.7962902695</v>
       </c>
     </row>
     <row r="4">
@@ -13631,28 +13631,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>408.2071795254184</v>
+        <v>456.0772296220452</v>
       </c>
       <c r="AB4" t="n">
-        <v>558.5270718564398</v>
+        <v>624.0249862762058</v>
       </c>
       <c r="AC4" t="n">
-        <v>505.222032016129</v>
+        <v>564.468917410573</v>
       </c>
       <c r="AD4" t="n">
-        <v>408207.1795254184</v>
+        <v>456077.2296220452</v>
       </c>
       <c r="AE4" t="n">
-        <v>558527.0718564398</v>
+        <v>624024.9862762059</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.766351511374807e-06</v>
+        <v>4.988386404271274e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.987500000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>505222.0320161291</v>
+        <v>564468.917410573</v>
       </c>
     </row>
     <row r="5">
@@ -13737,28 +13737,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>367.2879110759408</v>
+        <v>405.7204965205568</v>
       </c>
       <c r="AB5" t="n">
-        <v>502.5395235331473</v>
+        <v>555.1246824644765</v>
       </c>
       <c r="AC5" t="n">
-        <v>454.5778567257941</v>
+        <v>502.1443618924513</v>
       </c>
       <c r="AD5" t="n">
-        <v>367287.9110759408</v>
+        <v>405720.4965205568</v>
       </c>
       <c r="AE5" t="n">
-        <v>502539.5235331473</v>
+        <v>555124.6824644764</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.889802473064775e-06</v>
+        <v>5.210997701626758e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.645833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>454577.8567257941</v>
+        <v>502144.3618924513</v>
       </c>
     </row>
     <row r="6">
@@ -13843,28 +13843,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>358.9861942364902</v>
+        <v>397.4187796811062</v>
       </c>
       <c r="AB6" t="n">
-        <v>491.1807483075124</v>
+        <v>543.7659072388416</v>
       </c>
       <c r="AC6" t="n">
-        <v>444.3031470655526</v>
+        <v>491.8696522322098</v>
       </c>
       <c r="AD6" t="n">
-        <v>358986.1942364902</v>
+        <v>397418.7796811062</v>
       </c>
       <c r="AE6" t="n">
-        <v>491180.7483075124</v>
+        <v>543765.9072388415</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.914301761853764e-06</v>
+        <v>5.255175716823594e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.581944444444446</v>
       </c>
       <c r="AH6" t="n">
-        <v>444303.1470655526</v>
+        <v>491869.6522322098</v>
       </c>
     </row>
     <row r="7">
@@ -13949,28 +13949,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>360.0169449481908</v>
+        <v>398.4495303928068</v>
       </c>
       <c r="AB7" t="n">
-        <v>492.5910669047731</v>
+        <v>545.1762258361023</v>
       </c>
       <c r="AC7" t="n">
-        <v>445.5788668352854</v>
+        <v>493.1453720019426</v>
       </c>
       <c r="AD7" t="n">
-        <v>360016.9449481908</v>
+        <v>398449.5303928068</v>
       </c>
       <c r="AE7" t="n">
-        <v>492591.0669047731</v>
+        <v>545176.2258361023</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.918915264288054e-06</v>
+        <v>5.26349495345157e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.569444444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>445578.8668352854</v>
+        <v>493145.3720019426</v>
       </c>
     </row>
   </sheetData>
@@ -14246,28 +14246,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>603.1167305170361</v>
+        <v>649.2900816683967</v>
       </c>
       <c r="AB2" t="n">
-        <v>825.2109183256875</v>
+        <v>888.3873343954659</v>
       </c>
       <c r="AC2" t="n">
-        <v>746.4539464714813</v>
+        <v>803.6008940602169</v>
       </c>
       <c r="AD2" t="n">
-        <v>603116.730517036</v>
+        <v>649290.0816683967</v>
       </c>
       <c r="AE2" t="n">
-        <v>825210.9183256875</v>
+        <v>888387.3343954659</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.192908976506516e-06</v>
+        <v>4.091267202731966e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.49583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>746453.9464714814</v>
+        <v>803600.8940602168</v>
       </c>
     </row>
     <row r="3">
@@ -14352,28 +14352,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>384.3364968187525</v>
+        <v>421.258127470637</v>
       </c>
       <c r="AB3" t="n">
-        <v>525.8661506769824</v>
+        <v>576.3839546022753</v>
       </c>
       <c r="AC3" t="n">
-        <v>475.6782233141485</v>
+        <v>521.3746789349944</v>
       </c>
       <c r="AD3" t="n">
-        <v>384336.4968187525</v>
+        <v>421258.127470637</v>
       </c>
       <c r="AE3" t="n">
-        <v>525866.1506769825</v>
+        <v>576383.9546022753</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.804232275405673e-06</v>
+        <v>5.231801073424796e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.208333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>475678.2233141484</v>
+        <v>521374.6789349945</v>
       </c>
     </row>
     <row r="4">
@@ -14458,28 +14458,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>328.6592354463356</v>
+        <v>365.6661174442407</v>
       </c>
       <c r="AB4" t="n">
-        <v>449.6860653598275</v>
+        <v>500.3205139377697</v>
       </c>
       <c r="AC4" t="n">
-        <v>406.7686584202414</v>
+        <v>452.5706262917998</v>
       </c>
       <c r="AD4" t="n">
-        <v>328659.2354463356</v>
+        <v>365666.1174442407</v>
       </c>
       <c r="AE4" t="n">
-        <v>449686.0653598275</v>
+        <v>500320.5139377697</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.976576062571605e-06</v>
+        <v>5.553339491836437e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.731944444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>406768.6584202414</v>
+        <v>452570.6262917998</v>
       </c>
     </row>
     <row r="5">
@@ -14564,28 +14564,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>330.3524301808729</v>
+        <v>367.359312178778</v>
       </c>
       <c r="AB5" t="n">
-        <v>452.0027690941013</v>
+        <v>502.6372176720434</v>
       </c>
       <c r="AC5" t="n">
-        <v>408.8642592016301</v>
+        <v>454.6662270731885</v>
       </c>
       <c r="AD5" t="n">
-        <v>330352.430180873</v>
+        <v>367359.312178778</v>
       </c>
       <c r="AE5" t="n">
-        <v>452002.7690941013</v>
+        <v>502637.2176720434</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.97624463221167e-06</v>
+        <v>5.552721148724107e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.733333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>408864.2592016301</v>
+        <v>454666.2270731885</v>
       </c>
     </row>
     <row r="6">
@@ -14670,28 +14670,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>331.6901228373795</v>
+        <v>368.6970048352845</v>
       </c>
       <c r="AB6" t="n">
-        <v>453.8330592015683</v>
+        <v>504.4675077795106</v>
       </c>
       <c r="AC6" t="n">
-        <v>410.519868990069</v>
+        <v>456.3218368616273</v>
       </c>
       <c r="AD6" t="n">
-        <v>331690.1228373795</v>
+        <v>368697.0048352845</v>
       </c>
       <c r="AE6" t="n">
-        <v>453833.0592015684</v>
+        <v>504467.5077795106</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.980387511710851e-06</v>
+        <v>5.560450437628233e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.722222222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>410519.868990069</v>
+        <v>456321.8368616273</v>
       </c>
     </row>
   </sheetData>
@@ -26716,28 +26716,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>448.1917437366105</v>
+        <v>492.8552647684818</v>
       </c>
       <c r="AB2" t="n">
-        <v>613.2357166046691</v>
+        <v>674.3463164959584</v>
       </c>
       <c r="AC2" t="n">
-        <v>554.7093604936525</v>
+        <v>609.9876505005827</v>
       </c>
       <c r="AD2" t="n">
-        <v>448191.7437366105</v>
+        <v>492855.2647684818</v>
       </c>
       <c r="AE2" t="n">
-        <v>613235.716604669</v>
+        <v>674346.3164959584</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.506572314246336e-06</v>
+        <v>4.820231513040219e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.49861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>554709.3604936525</v>
+        <v>609987.6505005828</v>
       </c>
     </row>
     <row r="3">
@@ -26822,28 +26822,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>308.3134559936776</v>
+        <v>352.9768875169979</v>
       </c>
       <c r="AB3" t="n">
-        <v>421.8480723202603</v>
+        <v>482.9585497420011</v>
       </c>
       <c r="AC3" t="n">
-        <v>381.587484365502</v>
+        <v>436.8656635912056</v>
       </c>
       <c r="AD3" t="n">
-        <v>308313.4559936776</v>
+        <v>352976.8875169979</v>
       </c>
       <c r="AE3" t="n">
-        <v>421848.0723202603</v>
+        <v>482958.5497420011</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.994275654010447e-06</v>
+        <v>5.758103121205958e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.951388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>381587.484365502</v>
+        <v>436865.6635912056</v>
       </c>
     </row>
     <row r="4">
@@ -26928,28 +26928,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>309.1187389374847</v>
+        <v>353.7821704608049</v>
       </c>
       <c r="AB4" t="n">
-        <v>422.9498959705531</v>
+        <v>484.060373392294</v>
       </c>
       <c r="AC4" t="n">
-        <v>382.5841515130301</v>
+        <v>437.8623307387338</v>
       </c>
       <c r="AD4" t="n">
-        <v>309118.7389374847</v>
+        <v>353782.1704608049</v>
       </c>
       <c r="AE4" t="n">
-        <v>422949.8959705532</v>
+        <v>484060.373392294</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.001989766590196e-06</v>
+        <v>5.772937645763939e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.930555555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>382584.1515130301</v>
+        <v>437862.3307387338</v>
       </c>
     </row>
   </sheetData>
@@ -27225,28 +27225,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>280.0785616678536</v>
+        <v>322.0035545637951</v>
       </c>
       <c r="AB2" t="n">
-        <v>383.2158442680428</v>
+        <v>440.5794691484183</v>
       </c>
       <c r="AC2" t="n">
-        <v>346.6422619379154</v>
+        <v>398.5311829700611</v>
       </c>
       <c r="AD2" t="n">
-        <v>280078.5616678536</v>
+        <v>322003.5545637952</v>
       </c>
       <c r="AE2" t="n">
-        <v>383215.8442680428</v>
+        <v>440579.4691484183</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.906138196437706e-06</v>
+        <v>5.994198671758756e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.793055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>346642.2619379153</v>
+        <v>398531.1829700611</v>
       </c>
     </row>
     <row r="3">
@@ -27331,28 +27331,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>282.7835454129837</v>
+        <v>324.7085383089253</v>
       </c>
       <c r="AB3" t="n">
-        <v>386.9169223635903</v>
+        <v>444.2805472439658</v>
       </c>
       <c r="AC3" t="n">
-        <v>349.9901143345196</v>
+        <v>401.8790353666652</v>
       </c>
       <c r="AD3" t="n">
-        <v>282783.5454129837</v>
+        <v>324708.5383089252</v>
       </c>
       <c r="AE3" t="n">
-        <v>386916.9223635903</v>
+        <v>444280.5472439658</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.909450034838204e-06</v>
+        <v>6.001029667396088e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.783333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>349990.1143345196</v>
+        <v>401879.0353666652</v>
       </c>
     </row>
   </sheetData>
@@ -27628,28 +27628,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1256.578419357865</v>
+        <v>1325.864749803156</v>
       </c>
       <c r="AB2" t="n">
-        <v>1719.306029692793</v>
+        <v>1814.106643705209</v>
       </c>
       <c r="AC2" t="n">
-        <v>1555.21787528008</v>
+        <v>1640.970851744649</v>
       </c>
       <c r="AD2" t="n">
-        <v>1256578.419357864</v>
+        <v>1325864.749803156</v>
       </c>
       <c r="AE2" t="n">
-        <v>1719306.029692793</v>
+        <v>1814106.643705209</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.511770145198485e-06</v>
+        <v>2.656120509144099e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.13611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>1555217.87528008</v>
+        <v>1640970.851744649</v>
       </c>
     </row>
     <row r="3">
@@ -27734,28 +27734,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>617.6395912653869</v>
+        <v>667.0201289157317</v>
       </c>
       <c r="AB3" t="n">
-        <v>845.0817371049786</v>
+        <v>912.6463672337496</v>
       </c>
       <c r="AC3" t="n">
-        <v>764.4283221953463</v>
+        <v>825.5446788521811</v>
       </c>
       <c r="AD3" t="n">
-        <v>617639.5912653869</v>
+        <v>667020.1289157317</v>
       </c>
       <c r="AE3" t="n">
-        <v>845081.7371049786</v>
+        <v>912646.3672337496</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.286350390585678e-06</v>
+        <v>4.017027444821594e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.347222222222221</v>
       </c>
       <c r="AH3" t="n">
-        <v>764428.3221953462</v>
+        <v>825544.6788521811</v>
       </c>
     </row>
     <row r="4">
@@ -27840,28 +27840,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>504.6767943138854</v>
+        <v>544.2324468486144</v>
       </c>
       <c r="AB4" t="n">
-        <v>690.5210547490555</v>
+        <v>744.6428436193005</v>
       </c>
       <c r="AC4" t="n">
-        <v>624.6186944361921</v>
+        <v>673.5751757370687</v>
       </c>
       <c r="AD4" t="n">
-        <v>504676.7943138854</v>
+        <v>544232.4468486144</v>
       </c>
       <c r="AE4" t="n">
-        <v>690521.0547490554</v>
+        <v>744642.8436193005</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.558392081853965e-06</v>
+        <v>4.494993964940349e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.352777777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>624618.694436192</v>
+        <v>673575.1757370686</v>
       </c>
     </row>
     <row r="5">
@@ -27946,28 +27946,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>446.2360873047309</v>
+        <v>485.8769911854804</v>
       </c>
       <c r="AB5" t="n">
-        <v>610.5599011970988</v>
+        <v>664.7983347199931</v>
       </c>
       <c r="AC5" t="n">
-        <v>552.2889211530504</v>
+        <v>601.3509147046392</v>
       </c>
       <c r="AD5" t="n">
-        <v>446236.0873047309</v>
+        <v>485876.9911854804</v>
       </c>
       <c r="AE5" t="n">
-        <v>610559.9011970989</v>
+        <v>664798.3347199932</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.699644498474037e-06</v>
+        <v>4.743168888848163e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.916666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>552288.9211530504</v>
+        <v>601350.9147046392</v>
       </c>
     </row>
     <row r="6">
@@ -28052,28 +28052,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>413.7054182471087</v>
+        <v>453.3463221278582</v>
       </c>
       <c r="AB6" t="n">
-        <v>566.0500046406293</v>
+        <v>620.2884381635234</v>
       </c>
       <c r="AC6" t="n">
-        <v>512.026986653898</v>
+        <v>561.0889802054869</v>
       </c>
       <c r="AD6" t="n">
-        <v>413705.4182471087</v>
+        <v>453346.3221278582</v>
       </c>
       <c r="AE6" t="n">
-        <v>566050.0046406293</v>
+        <v>620288.4381635234</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.789042814439464e-06</v>
+        <v>4.900238203434701e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.662500000000001</v>
       </c>
       <c r="AH6" t="n">
-        <v>512026.986653898</v>
+        <v>561088.9802054869</v>
       </c>
     </row>
     <row r="7">
@@ -28158,28 +28158,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>390.285809393082</v>
+        <v>429.9267132738315</v>
       </c>
       <c r="AB7" t="n">
-        <v>534.006262606327</v>
+        <v>588.2446961292212</v>
       </c>
       <c r="AC7" t="n">
-        <v>483.0414543856751</v>
+        <v>532.1034479372641</v>
       </c>
       <c r="AD7" t="n">
-        <v>390285.809393082</v>
+        <v>429926.7132738315</v>
       </c>
       <c r="AE7" t="n">
-        <v>534006.2626063271</v>
+        <v>588244.6961292212</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.84120465456387e-06</v>
+        <v>4.99188449886471e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.522222222222221</v>
       </c>
       <c r="AH7" t="n">
-        <v>483041.4543856751</v>
+        <v>532103.4479372641</v>
       </c>
     </row>
     <row r="8">
@@ -28264,28 +28264,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>388.2595450489139</v>
+        <v>427.9004489296634</v>
       </c>
       <c r="AB8" t="n">
-        <v>531.2338383381623</v>
+        <v>585.4722718610566</v>
       </c>
       <c r="AC8" t="n">
-        <v>480.5336263985422</v>
+        <v>529.5956199501311</v>
       </c>
       <c r="AD8" t="n">
-        <v>388259.5450489139</v>
+        <v>427900.4489296634</v>
       </c>
       <c r="AE8" t="n">
-        <v>531233.8383381623</v>
+        <v>585472.2718610566</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.848282662368361e-06</v>
+        <v>5.004320279365538e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.502777777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>480533.6263985422</v>
+        <v>529595.619950131</v>
       </c>
     </row>
     <row r="9">
@@ -28370,28 +28370,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>388.9442313458077</v>
+        <v>428.414543025965</v>
       </c>
       <c r="AB9" t="n">
-        <v>532.1706563358</v>
+        <v>586.1756780838473</v>
       </c>
       <c r="AC9" t="n">
-        <v>481.3810358013176</v>
+        <v>530.2318940702553</v>
       </c>
       <c r="AD9" t="n">
-        <v>388944.2313458077</v>
+        <v>428414.543025965</v>
       </c>
       <c r="AE9" t="n">
-        <v>532170.6563358</v>
+        <v>586175.6780838473</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.853052624149649e-06</v>
+        <v>5.012700914050878e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.490277777777777</v>
       </c>
       <c r="AH9" t="n">
-        <v>481381.0358013177</v>
+        <v>530231.8940702553</v>
       </c>
     </row>
   </sheetData>
@@ -28667,28 +28667,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2018.691552273899</v>
+        <v>2111.012713225638</v>
       </c>
       <c r="AB2" t="n">
-        <v>2762.062840207009</v>
+        <v>2888.380725543348</v>
       </c>
       <c r="AC2" t="n">
-        <v>2498.455439317195</v>
+        <v>2612.717722965299</v>
       </c>
       <c r="AD2" t="n">
-        <v>2018691.552273899</v>
+        <v>2111012.713225638</v>
       </c>
       <c r="AE2" t="n">
-        <v>2762062.840207009</v>
+        <v>2888380.725543348</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.165876676502758e-06</v>
+        <v>1.993519188730004e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.6625</v>
       </c>
       <c r="AH2" t="n">
-        <v>2498455.439317195</v>
+        <v>2612717.722965299</v>
       </c>
     </row>
     <row r="3">
@@ -28773,28 +28773,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>796.8200574091585</v>
+        <v>848.0243399252158</v>
       </c>
       <c r="AB3" t="n">
-        <v>1090.244355767154</v>
+        <v>1160.304314079138</v>
       </c>
       <c r="AC3" t="n">
-        <v>986.1929646203002</v>
+        <v>1049.566498840757</v>
       </c>
       <c r="AD3" t="n">
-        <v>796820.0574091584</v>
+        <v>848024.3399252158</v>
       </c>
       <c r="AE3" t="n">
-        <v>1090244.355767154</v>
+        <v>1160304.314079138</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.016819859314577e-06</v>
+        <v>3.448537200191469e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.21111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>986192.9646203002</v>
+        <v>1049566.498840757</v>
       </c>
     </row>
     <row r="4">
@@ -28879,28 +28879,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>621.0246791730405</v>
+        <v>672.2288721805465</v>
       </c>
       <c r="AB4" t="n">
-        <v>849.7133637197688</v>
+        <v>919.7731995622042</v>
       </c>
       <c r="AC4" t="n">
-        <v>768.6179128665495</v>
+        <v>831.99133630578</v>
       </c>
       <c r="AD4" t="n">
-        <v>621024.6791730404</v>
+        <v>672228.8721805465</v>
       </c>
       <c r="AE4" t="n">
-        <v>849713.3637197688</v>
+        <v>919773.1995622042</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.325081033223929e-06</v>
+        <v>3.975629454212793e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.856944444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>768617.9128665496</v>
+        <v>831991.33630578</v>
       </c>
     </row>
     <row r="5">
@@ -28985,28 +28985,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>557.3618350414522</v>
+        <v>598.3082107850939</v>
       </c>
       <c r="AB5" t="n">
-        <v>762.6070517724683</v>
+        <v>818.6316894915255</v>
       </c>
       <c r="AC5" t="n">
-        <v>689.8249050770229</v>
+        <v>740.5026300032461</v>
       </c>
       <c r="AD5" t="n">
-        <v>557361.8350414522</v>
+        <v>598308.210785094</v>
       </c>
       <c r="AE5" t="n">
-        <v>762607.0517724683</v>
+        <v>818631.6894915255</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.482844327615247e-06</v>
+        <v>4.245387106102495e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.294444444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>689824.9050770228</v>
+        <v>740502.630003246</v>
       </c>
     </row>
     <row r="6">
@@ -29091,28 +29091,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>509.1724279861066</v>
+        <v>560.2912801390411</v>
       </c>
       <c r="AB6" t="n">
-        <v>696.6721790727486</v>
+        <v>766.6152477929861</v>
       </c>
       <c r="AC6" t="n">
-        <v>630.182764087589</v>
+        <v>693.4505644948807</v>
       </c>
       <c r="AD6" t="n">
-        <v>509172.4279861066</v>
+        <v>560291.2801390411</v>
       </c>
       <c r="AE6" t="n">
-        <v>696672.1790727485</v>
+        <v>766615.2477929861</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.581446386609821e-06</v>
+        <v>4.413985638533559e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.977777777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>630182.764087589</v>
+        <v>693450.5644948807</v>
       </c>
     </row>
     <row r="7">
@@ -29197,28 +29197,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>480.9972954312782</v>
+        <v>522.0289225209405</v>
       </c>
       <c r="AB7" t="n">
-        <v>658.1217197121105</v>
+        <v>714.2630020838168</v>
       </c>
       <c r="AC7" t="n">
-        <v>595.3115064624208</v>
+        <v>646.0947436393562</v>
       </c>
       <c r="AD7" t="n">
-        <v>480997.2954312782</v>
+        <v>522028.9225209404</v>
       </c>
       <c r="AE7" t="n">
-        <v>658121.7197121105</v>
+        <v>714263.0020838168</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.651876428748802e-06</v>
+        <v>4.534413161698604e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.765277777777777</v>
       </c>
       <c r="AH7" t="n">
-        <v>595311.5064624208</v>
+        <v>646094.7436393562</v>
       </c>
     </row>
     <row r="8">
@@ -29303,28 +29303,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>457.6228898155269</v>
+        <v>498.6545169051892</v>
       </c>
       <c r="AB8" t="n">
-        <v>626.1398267426428</v>
+        <v>682.2811091143491</v>
       </c>
       <c r="AC8" t="n">
-        <v>566.3819204710903</v>
+        <v>617.1651576480258</v>
       </c>
       <c r="AD8" t="n">
-        <v>457622.889815527</v>
+        <v>498654.5169051892</v>
       </c>
       <c r="AE8" t="n">
-        <v>626139.8267426428</v>
+        <v>682281.1091143491</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.704513618136883e-06</v>
+        <v>4.624416889537744e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.61388888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>566381.9204710904</v>
+        <v>617165.1576480258</v>
       </c>
     </row>
     <row r="9">
@@ -29409,28 +29409,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>438.9125331317754</v>
+        <v>479.9441602214376</v>
       </c>
       <c r="AB9" t="n">
-        <v>600.5394912852538</v>
+        <v>656.6807736569601</v>
       </c>
       <c r="AC9" t="n">
-        <v>543.2248450994581</v>
+        <v>594.0080822763936</v>
       </c>
       <c r="AD9" t="n">
-        <v>438912.5331317754</v>
+        <v>479944.1602214376</v>
       </c>
       <c r="AE9" t="n">
-        <v>600539.4912852538</v>
+        <v>656680.7736569601</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.742916525324244e-06</v>
+        <v>4.690081581116158e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.508333333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>543224.8450994581</v>
+        <v>594008.0822763935</v>
       </c>
     </row>
     <row r="10">
@@ -29515,28 +29515,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>427.8775765614221</v>
+        <v>468.7386114504922</v>
       </c>
       <c r="AB10" t="n">
-        <v>585.440976877771</v>
+        <v>641.3488474746306</v>
       </c>
       <c r="AC10" t="n">
-        <v>529.5673117161275</v>
+        <v>580.1394136104119</v>
       </c>
       <c r="AD10" t="n">
-        <v>427877.5765614221</v>
+        <v>468738.6114504922</v>
       </c>
       <c r="AE10" t="n">
-        <v>585440.9768777711</v>
+        <v>641348.8474746306</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.758633545254205e-06</v>
+        <v>4.716955933654042e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.465277777777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>529567.3117161276</v>
+        <v>580139.4136104119</v>
       </c>
     </row>
     <row r="11">
@@ -29621,28 +29621,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>426.5232276347123</v>
+        <v>467.3842625237823</v>
       </c>
       <c r="AB11" t="n">
-        <v>583.5878969265891</v>
+        <v>639.4957675234484</v>
       </c>
       <c r="AC11" t="n">
-        <v>527.8910871146721</v>
+        <v>578.4631890089565</v>
       </c>
       <c r="AD11" t="n">
-        <v>426523.2276347123</v>
+        <v>467384.2625237823</v>
       </c>
       <c r="AE11" t="n">
-        <v>583587.8969265891</v>
+        <v>639495.7675234484</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.766936876537959e-06</v>
+        <v>4.731153704806131e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.443055555555556</v>
       </c>
       <c r="AH11" t="n">
-        <v>527891.0871146722</v>
+        <v>578463.1890089565</v>
       </c>
     </row>
   </sheetData>
@@ -29918,28 +29918,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>274.8311726369099</v>
+        <v>315.5208149706461</v>
       </c>
       <c r="AB2" t="n">
-        <v>376.0361350974399</v>
+        <v>431.7094988387857</v>
       </c>
       <c r="AC2" t="n">
-        <v>340.1477741337698</v>
+        <v>390.5077501776983</v>
       </c>
       <c r="AD2" t="n">
-        <v>274831.1726369099</v>
+        <v>315520.8149706462</v>
       </c>
       <c r="AE2" t="n">
-        <v>376036.1350974399</v>
+        <v>431709.4988387857</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.722003702234342e-06</v>
+        <v>5.834507662829392e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.720833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>340147.7741337697</v>
+        <v>390507.7501776983</v>
       </c>
     </row>
   </sheetData>
@@ -30215,28 +30215,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>692.0520048737005</v>
+        <v>738.9433142576486</v>
       </c>
       <c r="AB2" t="n">
-        <v>946.8960842478704</v>
+        <v>1011.054842445557</v>
       </c>
       <c r="AC2" t="n">
-        <v>856.5256509442539</v>
+        <v>914.5611873069357</v>
       </c>
       <c r="AD2" t="n">
-        <v>692052.0048737006</v>
+        <v>738943.3142576485</v>
       </c>
       <c r="AE2" t="n">
-        <v>946896.0842478704</v>
+        <v>1011054.842445557</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.059209780172102e-06</v>
+        <v>3.793955095593491e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.01388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>856525.6509442539</v>
+        <v>914561.1873069357</v>
       </c>
     </row>
     <row r="3">
@@ -30321,28 +30321,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>420.7185987315559</v>
+        <v>458.1463232858529</v>
       </c>
       <c r="AB3" t="n">
-        <v>575.6457475791366</v>
+        <v>626.8560115089975</v>
       </c>
       <c r="AC3" t="n">
-        <v>520.706925354064</v>
+        <v>567.0297535685158</v>
       </c>
       <c r="AD3" t="n">
-        <v>420718.5987315559</v>
+        <v>458146.3232858528</v>
       </c>
       <c r="AE3" t="n">
-        <v>575645.7475791366</v>
+        <v>626856.0115089975</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.7045703710714e-06</v>
+        <v>4.982988445140318e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.386111111111113</v>
       </c>
       <c r="AH3" t="n">
-        <v>520706.925354064</v>
+        <v>567029.7535685159</v>
       </c>
     </row>
     <row r="4">
@@ -30427,28 +30427,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>348.0531390456987</v>
+        <v>385.5661149460163</v>
       </c>
       <c r="AB4" t="n">
-        <v>476.2216598631176</v>
+        <v>527.5485684456279</v>
       </c>
       <c r="AC4" t="n">
-        <v>430.7717330270784</v>
+        <v>477.2000734922426</v>
       </c>
       <c r="AD4" t="n">
-        <v>348053.1390456987</v>
+        <v>385566.1149460163</v>
       </c>
       <c r="AE4" t="n">
-        <v>476221.6598631176</v>
+        <v>527548.5684456279</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.927474522533328e-06</v>
+        <v>5.393674306003531e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.747222222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>430771.7330270784</v>
+        <v>477200.0734922425</v>
       </c>
     </row>
     <row r="5">
@@ -30533,28 +30533,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>339.7664294590592</v>
+        <v>377.2794053593767</v>
       </c>
       <c r="AB5" t="n">
-        <v>464.8834182228521</v>
+        <v>516.2103268053623</v>
       </c>
       <c r="AC5" t="n">
-        <v>420.5155972556377</v>
+        <v>466.9439377208018</v>
       </c>
       <c r="AD5" t="n">
-        <v>339766.4294590591</v>
+        <v>377279.4053593767</v>
       </c>
       <c r="AE5" t="n">
-        <v>464883.4182228521</v>
+        <v>516210.3268053624</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.956705176827603e-06</v>
+        <v>5.447529814497682e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.670833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>420515.5972556376</v>
+        <v>466943.9377208018</v>
       </c>
     </row>
     <row r="6">
@@ -30639,28 +30639,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>340.6444660521057</v>
+        <v>378.1574419524233</v>
       </c>
       <c r="AB6" t="n">
-        <v>466.0847866256989</v>
+        <v>517.4116952082093</v>
       </c>
       <c r="AC6" t="n">
-        <v>421.602308744248</v>
+        <v>468.0306492094122</v>
       </c>
       <c r="AD6" t="n">
-        <v>340644.4660521057</v>
+        <v>378157.4419524233</v>
       </c>
       <c r="AE6" t="n">
-        <v>466084.7866256989</v>
+        <v>517411.6952082092</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.961114269933444e-06</v>
+        <v>5.455653271086184e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.659722222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>421602.308744248</v>
+        <v>468030.6492094122</v>
       </c>
     </row>
   </sheetData>
@@ -30936,28 +30936,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>988.9716040601375</v>
+        <v>1056.882612891882</v>
       </c>
       <c r="AB2" t="n">
-        <v>1353.154579022977</v>
+        <v>1446.073417328831</v>
       </c>
       <c r="AC2" t="n">
-        <v>1224.011405165402</v>
+        <v>1308.062199955755</v>
       </c>
       <c r="AD2" t="n">
-        <v>988971.6040601374</v>
+        <v>1056882.612891882</v>
       </c>
       <c r="AE2" t="n">
-        <v>1353154.579022977</v>
+        <v>1446073.417328831</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.710896896091559e-06</v>
+        <v>3.056392446553853e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.7625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1224011.405165402</v>
+        <v>1308062.199955755</v>
       </c>
     </row>
     <row r="3">
@@ -31042,28 +31042,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>532.8554263508581</v>
+        <v>581.3389067007985</v>
       </c>
       <c r="AB3" t="n">
-        <v>729.0763022555498</v>
+        <v>795.4135390105322</v>
       </c>
       <c r="AC3" t="n">
-        <v>659.4942832332964</v>
+        <v>719.5003872172797</v>
       </c>
       <c r="AD3" t="n">
-        <v>532855.4263508582</v>
+        <v>581338.9067007984</v>
       </c>
       <c r="AE3" t="n">
-        <v>729076.3022555498</v>
+        <v>795413.5390105322</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.434749984641966e-06</v>
+        <v>4.349503163695365e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.968055555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>659494.2832332964</v>
+        <v>719500.3872172796</v>
       </c>
     </row>
     <row r="4">
@@ -31148,28 +31148,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>447.7816239746027</v>
+        <v>486.5514295921917</v>
       </c>
       <c r="AB4" t="n">
-        <v>612.6745726530831</v>
+        <v>665.721131102178</v>
       </c>
       <c r="AC4" t="n">
-        <v>554.2017713332356</v>
+        <v>602.1856406952611</v>
       </c>
       <c r="AD4" t="n">
-        <v>447781.6239746027</v>
+        <v>486551.4295921916</v>
       </c>
       <c r="AE4" t="n">
-        <v>612674.5726530831</v>
+        <v>665721.131102178</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.691651797563636e-06</v>
+        <v>4.808439504227345e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.112499999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>554201.7713332355</v>
+        <v>602185.6406952611</v>
       </c>
     </row>
     <row r="5">
@@ -31254,28 +31254,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>393.4336524872131</v>
+        <v>432.2887094508226</v>
       </c>
       <c r="AB5" t="n">
-        <v>538.3132804007533</v>
+        <v>591.4764835024974</v>
       </c>
       <c r="AC5" t="n">
-        <v>486.9374164467389</v>
+        <v>535.0267980594767</v>
       </c>
       <c r="AD5" t="n">
-        <v>393433.6524872131</v>
+        <v>432288.7094508226</v>
       </c>
       <c r="AE5" t="n">
-        <v>538313.2804007534</v>
+        <v>591476.4835024974</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.825919942138365e-06</v>
+        <v>5.04829974585177e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.727777777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>486937.4164467389</v>
+        <v>535026.7980594768</v>
       </c>
     </row>
     <row r="6">
@@ -31360,28 +31360,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>369.3387101041025</v>
+        <v>408.193767067712</v>
       </c>
       <c r="AB6" t="n">
-        <v>505.3455172383457</v>
+        <v>558.5087203400898</v>
       </c>
       <c r="AC6" t="n">
-        <v>457.1160503300054</v>
+        <v>505.205431942743</v>
       </c>
       <c r="AD6" t="n">
-        <v>369338.7101041025</v>
+        <v>408193.767067712</v>
       </c>
       <c r="AE6" t="n">
-        <v>505345.5172383458</v>
+        <v>558508.7203400898</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.890695674649826e-06</v>
+        <v>5.164016864761914e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.554166666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>457116.0503300054</v>
+        <v>505205.431942743</v>
       </c>
     </row>
     <row r="7">
@@ -31466,28 +31466,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>369.9034031255446</v>
+        <v>408.758460089154</v>
       </c>
       <c r="AB7" t="n">
-        <v>506.1181551427807</v>
+        <v>559.2813582445247</v>
       </c>
       <c r="AC7" t="n">
-        <v>457.814948757245</v>
+        <v>505.9043303699829</v>
       </c>
       <c r="AD7" t="n">
-        <v>369903.4031255445</v>
+        <v>408758.460089154</v>
       </c>
       <c r="AE7" t="n">
-        <v>506118.1551427807</v>
+        <v>559281.3582445247</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.893368459729182e-06</v>
+        <v>5.168791600250925e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.547222222222223</v>
       </c>
       <c r="AH7" t="n">
-        <v>457814.948757245</v>
+        <v>505904.3303699829</v>
       </c>
     </row>
   </sheetData>
